--- a/Brighway/Results/Lobster - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe_unq.xlsx
@@ -1157,67 +1157,67 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0002069696056398221</v>
+        <v>0.0005038162831144612</v>
       </c>
       <c r="B12">
-        <v>0.1432524484144056</v>
+        <v>0.4363066839731614</v>
       </c>
       <c r="C12">
-        <v>0.03686065817587907</v>
+        <v>0.0339524863865344</v>
       </c>
       <c r="D12">
-        <v>0.0448357187211537</v>
+        <v>0.0413977606495082</v>
       </c>
       <c r="E12">
-        <v>1.325825158994782</v>
+        <v>2.154164017706651</v>
       </c>
       <c r="F12">
-        <v>0.04560854643123061</v>
+        <v>0.01042091451162783</v>
       </c>
       <c r="G12">
-        <v>1.818650113101818E-05</v>
+        <v>1.981529996860703E-05</v>
       </c>
       <c r="H12">
-        <v>2.567041750695928E-06</v>
+        <v>1.748164578866456E-06</v>
       </c>
       <c r="I12">
-        <v>0.006679889242236973</v>
+        <v>0.007023573009286899</v>
       </c>
       <c r="J12">
-        <v>0.1467455547589853</v>
+        <v>0.2679148356478546</v>
       </c>
       <c r="K12">
-        <v>0.0004391135304340684</v>
+        <v>0.0002185182997242057</v>
       </c>
       <c r="L12">
-        <v>0.001968946034787545</v>
+        <v>0.1786632073470346</v>
       </c>
       <c r="M12">
-        <v>0.0003713890135777492</v>
+        <v>3.117715357752167E-05</v>
       </c>
       <c r="N12">
-        <v>8.702010012858284E-08</v>
+        <v>1.748270715434375E-07</v>
       </c>
       <c r="O12">
-        <v>9.284490484288655E-05</v>
+        <v>0.0001756765738691238</v>
       </c>
       <c r="P12">
-        <v>0.00019373024957315</v>
+        <v>0.0004744203793874102</v>
       </c>
       <c r="Q12">
-        <v>0.0002132288526638501</v>
+        <v>0.0004852715962470032</v>
       </c>
       <c r="R12">
-        <v>0.0004354443458257128</v>
+        <v>0.0004213184355177342</v>
       </c>
       <c r="S12">
-        <v>5.475881521040711E-10</v>
+        <v>3.041022823068992E-09</v>
       </c>
       <c r="T12">
-        <v>2.480948849403086E-07</v>
+        <v>6.011733097679691E-07</v>
       </c>
       <c r="U12">
-        <v>0.01606568132788449</v>
+        <v>0.003231658862818706</v>
       </c>
     </row>
     <row r="13" spans="1:21">

--- a/Brighway/Results/Lobster - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe_unq.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,1431 +572,1106 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>7.061852162439963E-05</v>
+        <v>7.061852162440293E-05</v>
       </c>
       <c r="B3">
-        <v>0.004592144233444331</v>
+        <v>0.004592144233441703</v>
       </c>
       <c r="C3">
-        <v>0.001903251328730217</v>
+        <v>0.001903251328730233</v>
       </c>
       <c r="D3">
-        <v>0.002609367440933059</v>
+        <v>0.002609367440933142</v>
       </c>
       <c r="E3">
-        <v>0.5686412289156503</v>
+        <v>0.568641228915902</v>
       </c>
       <c r="F3">
-        <v>0.001095786629865357</v>
+        <v>0.001095786629864496</v>
       </c>
       <c r="G3">
-        <v>4.087117608129836E-06</v>
+        <v>4.087117608129878E-06</v>
       </c>
       <c r="H3">
-        <v>1.186793961367426E-07</v>
+        <v>1.186793961363511E-07</v>
       </c>
       <c r="I3">
-        <v>0.0006023946191143959</v>
+        <v>0.0006023946191143742</v>
       </c>
       <c r="J3">
-        <v>0.05211590915166358</v>
+        <v>0.05211590915167232</v>
       </c>
       <c r="K3">
-        <v>0.0007589446962757312</v>
+        <v>0.0007589446962757218</v>
       </c>
       <c r="L3">
-        <v>0.0008459568174122121</v>
+        <v>0.0008459568174115382</v>
       </c>
       <c r="M3">
-        <v>-0.0002255722433634215</v>
+        <v>-0.0002255722433638385</v>
       </c>
       <c r="N3">
-        <v>2.921747985327906E-09</v>
+        <v>2.921747985327651E-09</v>
       </c>
       <c r="O3">
-        <v>2.289262690870447E-05</v>
+        <v>2.289262690870313E-05</v>
       </c>
       <c r="P3">
-        <v>1.822782826079593E-05</v>
+        <v>1.822782826078561E-05</v>
       </c>
       <c r="Q3">
-        <v>1.880915165142973E-05</v>
+        <v>1.880915165141834E-05</v>
       </c>
       <c r="R3">
-        <v>1.873778853494523E-05</v>
+        <v>1.873778853493358E-05</v>
       </c>
       <c r="S3">
-        <v>4.85866318308428E-11</v>
+        <v>4.858663183083158E-11</v>
       </c>
       <c r="T3">
-        <v>3.257777988942284E-08</v>
+        <v>3.257777988942143E-08</v>
       </c>
       <c r="U3">
-        <v>0.0002493563734904014</v>
+        <v>0.0002493563734899737</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716193531708</v>
+        <v>0.006992716192980148</v>
       </c>
       <c r="B4">
-        <v>3.025216582094307</v>
+        <v>3.025216582043961</v>
       </c>
       <c r="C4">
-        <v>0.07038871982104755</v>
+        <v>0.07038871980747222</v>
       </c>
       <c r="D4">
-        <v>0.09440798009614187</v>
+        <v>0.09440798007746776</v>
       </c>
       <c r="E4">
-        <v>8.341453846042276</v>
+        <v>8.341453842147368</v>
       </c>
       <c r="F4">
-        <v>1.848787728902033</v>
+        <v>1.848787728890795</v>
       </c>
       <c r="G4">
-        <v>0.0007213160977258431</v>
+        <v>0.0007213160976975371</v>
       </c>
       <c r="H4">
-        <v>0.0001023750980391728</v>
+        <v>0.0001023750980384405</v>
       </c>
       <c r="I4">
-        <v>0.08131586854568612</v>
+        <v>0.08131586853850858</v>
       </c>
       <c r="J4">
-        <v>1.694323747614197</v>
+        <v>1.694323747239579</v>
       </c>
       <c r="K4">
-        <v>0.1197926434948273</v>
+        <v>0.1197926434941612</v>
       </c>
       <c r="L4">
-        <v>0.1250208540726027</v>
+        <v>0.1250208540854954</v>
       </c>
       <c r="M4">
-        <v>0.003473829048040999</v>
+        <v>0.003473829048012464</v>
       </c>
       <c r="N4">
-        <v>4.730718282508133E-07</v>
+        <v>4.730718282312246E-07</v>
       </c>
       <c r="O4">
-        <v>0.003900919284090332</v>
+        <v>0.003900919283903233</v>
       </c>
       <c r="P4">
-        <v>0.006715645304409086</v>
+        <v>0.006715645304208855</v>
       </c>
       <c r="Q4">
-        <v>0.007422234045154731</v>
+        <v>0.007422234044946975</v>
       </c>
       <c r="R4">
-        <v>0.04519907279011327</v>
+        <v>0.04519907278990927</v>
       </c>
       <c r="S4">
-        <v>1.265935666208645E-08</v>
+        <v>1.265935666184138E-08</v>
       </c>
       <c r="T4">
-        <v>6.022988917338344E-06</v>
+        <v>6.022988917064276E-06</v>
       </c>
       <c r="U4">
-        <v>0.7120457892365126</v>
+        <v>0.7120457892336866</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.228342434518008E-05</v>
+        <v>2.228342434547025E-05</v>
       </c>
       <c r="B5">
-        <v>0.001447673711586071</v>
+        <v>0.001447673711616993</v>
       </c>
       <c r="C5">
-        <v>0.0007034450137718219</v>
+        <v>0.0007034450137783154</v>
       </c>
       <c r="D5">
-        <v>0.001901529265909965</v>
+        <v>0.001901529265919015</v>
       </c>
       <c r="E5">
-        <v>0.1757922925970492</v>
+        <v>0.1757922925991405</v>
       </c>
       <c r="F5">
-        <v>0.0003603341654142947</v>
+        <v>0.0003603341654213016</v>
       </c>
       <c r="G5">
-        <v>8.58611451315718E-07</v>
+        <v>8.586114513312623E-07</v>
       </c>
       <c r="H5">
-        <v>4.031062349726529E-08</v>
+        <v>4.031062349810851E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002633467595989659</v>
+        <v>0.0002633467596028685</v>
       </c>
       <c r="J5">
-        <v>0.01045292782231365</v>
+        <v>0.01045292782250997</v>
       </c>
       <c r="K5">
-        <v>-1.847186048915899E-05</v>
+        <v>-1.847186048882281E-05</v>
       </c>
       <c r="L5">
-        <v>6.65975520421844E-05</v>
+        <v>6.659755205042397E-05</v>
       </c>
       <c r="M5">
-        <v>0.0003001268139626326</v>
+        <v>0.0003001268139624544</v>
       </c>
       <c r="N5">
-        <v>2.762481039578967E-09</v>
+        <v>2.76248103958851E-09</v>
       </c>
       <c r="O5">
-        <v>8.802857102479707E-06</v>
+        <v>8.802857102580398E-06</v>
       </c>
       <c r="P5">
-        <v>1.053320076112194E-05</v>
+        <v>1.05332007612404E-05</v>
       </c>
       <c r="Q5">
-        <v>1.08050155465082E-05</v>
+        <v>1.080501554663151E-05</v>
       </c>
       <c r="R5">
-        <v>-2.76784779611873E-06</v>
+        <v>-2.767847795995529E-06</v>
       </c>
       <c r="S5">
-        <v>1.403369204699211E-11</v>
+        <v>1.4033692047269E-11</v>
       </c>
       <c r="T5">
-        <v>1.013772547880148E-08</v>
+        <v>1.01377254789515E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001731333294756017</v>
+        <v>0.0001731333294774067</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.002942949075305344</v>
+        <v>0.02050901714778922</v>
       </c>
       <c r="B6">
-        <v>0.9953245369137518</v>
+        <v>2.11479886803087</v>
       </c>
       <c r="C6">
-        <v>0.2248738873827775</v>
+        <v>0.6741814191890961</v>
       </c>
       <c r="D6">
-        <v>0.2877411312722148</v>
+        <v>0.9073947001788052</v>
       </c>
       <c r="E6">
-        <v>2.546468020243017</v>
+        <v>142.5049592399731</v>
       </c>
       <c r="F6">
-        <v>0.2496764438308534</v>
+        <v>0.5410164582435485</v>
       </c>
       <c r="G6">
-        <v>0.0008497523123631206</v>
+        <v>0.001890982889244008</v>
       </c>
       <c r="H6">
-        <v>4.56499729633497E-05</v>
+        <v>7.539097603518797E-05</v>
       </c>
       <c r="I6">
-        <v>0.04537671027530846</v>
+        <v>0.1955363775460773</v>
       </c>
       <c r="J6">
-        <v>3.702444635111985</v>
+        <v>16.59090690815166</v>
       </c>
       <c r="K6">
-        <v>0.1021988106281972</v>
+        <v>0.1967138476254507</v>
       </c>
       <c r="L6">
-        <v>0.04134644880573465</v>
+        <v>0.1793857929621094</v>
       </c>
       <c r="M6">
-        <v>0.008313541145491732</v>
+        <v>-0.04832067459926767</v>
       </c>
       <c r="N6">
-        <v>3.467492803700577E-07</v>
+        <v>1.012114027063412E-06</v>
       </c>
       <c r="O6">
-        <v>0.002320041143674375</v>
+        <v>0.008465541858933992</v>
       </c>
       <c r="P6">
-        <v>0.002154571289781992</v>
+        <v>0.007021152966864775</v>
       </c>
       <c r="Q6">
-        <v>0.002213695554226876</v>
+        <v>0.007204192972081411</v>
       </c>
       <c r="R6">
-        <v>0.005859818076640715</v>
+        <v>0.01100229843129399</v>
       </c>
       <c r="S6">
-        <v>4.847776843313269E-09</v>
+        <v>1.624779485955478E-08</v>
       </c>
       <c r="T6">
-        <v>3.393282879788907E-06</v>
+        <v>1.174389914971303E-05</v>
       </c>
       <c r="U6">
-        <v>0.05168792979329954</v>
+        <v>0.1038974327030175</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.0005112050328807811</v>
+        <v>0.001022410065761786</v>
       </c>
       <c r="B7">
-        <v>0.08366423606358439</v>
+        <v>0.1673284721271996</v>
       </c>
       <c r="C7">
-        <v>0.01271280579227383</v>
+        <v>0.02542561158455311</v>
       </c>
       <c r="D7">
-        <v>0.01762636038585654</v>
+        <v>0.03525272077172122</v>
       </c>
       <c r="E7">
-        <v>3.677823236093652</v>
+        <v>7.355646472191376</v>
       </c>
       <c r="F7">
-        <v>0.03461414227049588</v>
+        <v>0.06922828454099925</v>
       </c>
       <c r="G7">
-        <v>2.877930259849977E-05</v>
+        <v>5.755860519702804E-05</v>
       </c>
       <c r="H7">
-        <v>2.548549463289967E-06</v>
+        <v>5.097098926573616E-06</v>
       </c>
       <c r="I7">
-        <v>0.007025897990285796</v>
+        <v>0.01405179598057464</v>
       </c>
       <c r="J7">
-        <v>0.1658806710354916</v>
+        <v>0.3317613420712199</v>
       </c>
       <c r="K7">
-        <v>0.001075232091483814</v>
+        <v>0.002150464182967634</v>
       </c>
       <c r="L7">
-        <v>0.000750068309718051</v>
+        <v>0.001500136619436619</v>
       </c>
       <c r="M7">
-        <v>0.003023914758429972</v>
+        <v>0.006047829516838142</v>
       </c>
       <c r="N7">
-        <v>3.446003366407962E-08</v>
+        <v>6.89200673281937E-08</v>
       </c>
       <c r="O7">
-        <v>0.0002071956738013471</v>
+        <v>0.0004143913476027914</v>
       </c>
       <c r="P7">
-        <v>0.0001843080425697271</v>
+        <v>0.0003686160851395476</v>
       </c>
       <c r="Q7">
-        <v>0.000197169117477208</v>
+        <v>0.0003943382349545143</v>
       </c>
       <c r="R7">
-        <v>0.0009464373135431441</v>
+        <v>0.001892874627086414</v>
       </c>
       <c r="S7">
-        <v>4.467504148212031E-10</v>
+        <v>8.93500829642627E-10</v>
       </c>
       <c r="T7">
-        <v>2.712538957620515E-07</v>
+        <v>5.425077915242567E-07</v>
       </c>
       <c r="U7">
-        <v>0.01307540799446512</v>
+        <v>0.02615081598892698</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.02050901714773526</v>
+        <v>0.005772319484942317</v>
       </c>
       <c r="B8">
-        <v>2.114798868027516</v>
+        <v>2.907744321016232</v>
       </c>
       <c r="C8">
-        <v>0.6741814191877433</v>
+        <v>0.06086610608205167</v>
       </c>
       <c r="D8">
-        <v>0.9073947001769319</v>
+        <v>0.08128839568554318</v>
       </c>
       <c r="E8">
-        <v>142.5049592395001</v>
+        <v>7.538243977161075</v>
       </c>
       <c r="F8">
-        <v>0.5410164582430257</v>
+        <v>1.300874184440054</v>
       </c>
       <c r="G8">
-        <v>0.001890982889241434</v>
+        <v>0.000695072124505258</v>
       </c>
       <c r="H8">
-        <v>7.539097603533262E-05</v>
+        <v>0.0001565284555869581</v>
       </c>
       <c r="I8">
-        <v>0.1955363775454057</v>
+        <v>0.06745111228970661</v>
       </c>
       <c r="J8">
-        <v>16.59090690811163</v>
+        <v>1.659919565231733</v>
       </c>
       <c r="K8">
-        <v>0.1967138476253886</v>
+        <v>0.08998677116139132</v>
       </c>
       <c r="L8">
-        <v>0.1793857929640484</v>
+        <v>0.6312150435524813</v>
       </c>
       <c r="M8">
-        <v>-0.04832067459914588</v>
+        <v>0.003212259632709414</v>
       </c>
       <c r="N8">
-        <v>1.012114027059998E-06</v>
+        <v>6.293643580216337E-07</v>
       </c>
       <c r="O8">
-        <v>0.008465541858917376</v>
+        <v>0.003389902818339616</v>
       </c>
       <c r="P8">
-        <v>0.007021152966851787</v>
+        <v>0.00551668348726404</v>
       </c>
       <c r="Q8">
-        <v>0.0072041929720684</v>
+        <v>0.006030270423647498</v>
       </c>
       <c r="R8">
-        <v>0.01100229843128134</v>
+        <v>0.04233379402824992</v>
       </c>
       <c r="S8">
-        <v>1.624779485954121E-08</v>
+        <v>1.634535373999671E-08</v>
       </c>
       <c r="T8">
-        <v>1.17438991496881E-05</v>
+        <v>5.531586339196344E-06</v>
       </c>
       <c r="U8">
-        <v>0.1038974327029888</v>
+        <v>0.4957872296450114</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.001022410065761562</v>
+        <v>0.002659737824686377</v>
       </c>
       <c r="B9">
-        <v>0.1673284721271688</v>
+        <v>2.604272550997</v>
       </c>
       <c r="C9">
-        <v>0.02542561158454766</v>
+        <v>0.110822395987861</v>
       </c>
       <c r="D9">
-        <v>0.03525272077171308</v>
+        <v>0.1350916962555057</v>
       </c>
       <c r="E9">
-        <v>7.355646472187304</v>
+        <v>7.766851187306683</v>
       </c>
       <c r="F9">
-        <v>0.06922828454099175</v>
+        <v>0.06950157301760251</v>
       </c>
       <c r="G9">
-        <v>5.755860519699954E-05</v>
+        <v>5.531609900451597E-05</v>
       </c>
       <c r="H9">
-        <v>5.097098926579933E-06</v>
+        <v>0.0001811265966102774</v>
       </c>
       <c r="I9">
-        <v>0.01405179598057159</v>
+        <v>0.03211676215009638</v>
       </c>
       <c r="J9">
-        <v>0.3317613420709832</v>
+        <v>0.9984957402551389</v>
       </c>
       <c r="K9">
-        <v>0.002150464182967628</v>
+        <v>0.00136954420366437</v>
       </c>
       <c r="L9">
-        <v>0.001500136619436102</v>
+        <v>1.119773469301994</v>
       </c>
       <c r="M9">
-        <v>0.006047829516859943</v>
+        <v>0.003081440595948787</v>
       </c>
       <c r="N9">
-        <v>6.892006732815924E-08</v>
+        <v>6.185581060604655E-07</v>
       </c>
       <c r="O9">
-        <v>0.0004143913476026941</v>
+        <v>0.0009940752983426864</v>
       </c>
       <c r="P9">
-        <v>0.0003686160851394542</v>
+        <v>0.002783704052580196</v>
       </c>
       <c r="Q9">
-        <v>0.000394338234954416</v>
+        <v>0.002846241555170879</v>
       </c>
       <c r="R9">
-        <v>0.001892874627086288</v>
+        <v>0.002923296350288404</v>
       </c>
       <c r="S9">
-        <v>8.935008296424061E-10</v>
+        <v>1.836915669035447E-08</v>
       </c>
       <c r="T9">
-        <v>5.42507791524103E-07</v>
+        <v>3.385349297174253E-06</v>
       </c>
       <c r="U9">
-        <v>0.02615081598893024</v>
+        <v>0.02054473035261248</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.005772319484899971</v>
+        <v>0.0005038162831144612</v>
       </c>
       <c r="B10">
-        <v>2.907744321014477</v>
+        <v>0.4363066839731614</v>
       </c>
       <c r="C10">
-        <v>0.06086610608097461</v>
+        <v>0.0339524863865344</v>
       </c>
       <c r="D10">
-        <v>0.08128839568404192</v>
+        <v>0.0413977606495082</v>
       </c>
       <c r="E10">
-        <v>7.538243976777877</v>
+        <v>2.154164017706651</v>
       </c>
       <c r="F10">
-        <v>1.300874184439646</v>
+        <v>0.01042091451162783</v>
       </c>
       <c r="G10">
-        <v>0.000695072124503313</v>
+        <v>1.981529996860703E-05</v>
       </c>
       <c r="H10">
-        <v>0.0001565284555871467</v>
+        <v>1.748164578866456E-06</v>
       </c>
       <c r="I10">
-        <v>0.06745111228920662</v>
+        <v>0.007023573009286899</v>
       </c>
       <c r="J10">
-        <v>1.65991956519907</v>
+        <v>0.2679148356478546</v>
       </c>
       <c r="K10">
-        <v>0.08998677116132087</v>
+        <v>0.0002185182997242057</v>
       </c>
       <c r="L10">
-        <v>0.6312150435544746</v>
+        <v>0.1786632073470346</v>
       </c>
       <c r="M10">
-        <v>0.003212259632870788</v>
+        <v>3.117715357752167E-05</v>
       </c>
       <c r="N10">
-        <v>6.293643580201401E-07</v>
+        <v>1.748270715434375E-07</v>
       </c>
       <c r="O10">
-        <v>0.003389902818326316</v>
+        <v>0.0001756765738691238</v>
       </c>
       <c r="P10">
-        <v>0.005516683487253263</v>
+        <v>0.0004744203793874102</v>
       </c>
       <c r="Q10">
-        <v>0.006030270423636524</v>
+        <v>0.0004852715962470032</v>
       </c>
       <c r="R10">
-        <v>0.04233379402824547</v>
+        <v>0.0004213184355177342</v>
       </c>
       <c r="S10">
-        <v>1.634535373999252E-08</v>
+        <v>3.041022823068992E-09</v>
       </c>
       <c r="T10">
-        <v>5.531586339177245E-06</v>
+        <v>6.011733097679691E-07</v>
       </c>
       <c r="U10">
-        <v>0.4957872296449559</v>
+        <v>0.003231658862818706</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.002659737824686377</v>
+        <v>0.0003736670231602012</v>
       </c>
       <c r="B11">
-        <v>2.604272550997</v>
+        <v>0.4197414960552314</v>
       </c>
       <c r="C11">
-        <v>0.110822395987861</v>
+        <v>0.01735694911605258</v>
       </c>
       <c r="D11">
-        <v>0.1350916962555057</v>
+        <v>0.02142888671358929</v>
       </c>
       <c r="E11">
-        <v>7.766851187306683</v>
+        <v>1.087724673730751</v>
       </c>
       <c r="F11">
-        <v>0.06950157301760251</v>
+        <v>0.008745847180082582</v>
       </c>
       <c r="G11">
-        <v>5.531609900451597E-05</v>
+        <v>1.429857804026905E-05</v>
       </c>
       <c r="H11">
-        <v>0.0001811265966102774</v>
+        <v>1.52760617656039E-06</v>
       </c>
       <c r="I11">
-        <v>0.03211676215009638</v>
+        <v>0.005329533745352403</v>
       </c>
       <c r="J11">
-        <v>0.9984957402551389</v>
+        <v>0.1728108976696197</v>
       </c>
       <c r="K11">
-        <v>0.00136954420366437</v>
+        <v>8.878999151902986E-05</v>
       </c>
       <c r="L11">
-        <v>1.119773469301994</v>
+        <v>0.17486427082844</v>
       </c>
       <c r="M11">
-        <v>0.003081440595948787</v>
+        <v>0.0004609133823264467</v>
       </c>
       <c r="N11">
-        <v>6.185581060604655E-07</v>
+        <v>1.678931466963876E-07</v>
       </c>
       <c r="O11">
-        <v>0.0009940752983426864</v>
+        <v>0.0001317687004881112</v>
       </c>
       <c r="P11">
-        <v>0.002783704052580196</v>
+        <v>0.0004362982524317448</v>
       </c>
       <c r="Q11">
-        <v>0.002846241555170879</v>
+        <v>0.0004458788720437829</v>
       </c>
       <c r="R11">
-        <v>0.002923296350288404</v>
+        <v>0.0003881229381924918</v>
       </c>
       <c r="S11">
-        <v>1.836915669035447E-08</v>
+        <v>2.898828723056617E-09</v>
       </c>
       <c r="T11">
-        <v>3.385349297174253E-06</v>
+        <v>5.308252369992181E-07</v>
       </c>
       <c r="U11">
-        <v>0.02054473035261248</v>
+        <v>0.002905565989393512</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0005038162831144612</v>
+        <v>7.224247781710064E-05</v>
       </c>
       <c r="B12">
-        <v>0.4363066839731614</v>
+        <v>0.08765780760027571</v>
       </c>
       <c r="C12">
-        <v>0.0339524863865344</v>
+        <v>0.001952532045147212</v>
       </c>
       <c r="D12">
-        <v>0.0413977606495082</v>
+        <v>0.002502910752679732</v>
       </c>
       <c r="E12">
-        <v>2.154164017706651</v>
+        <v>0.1964120788656271</v>
       </c>
       <c r="F12">
-        <v>0.01042091451162783</v>
+        <v>0.01323766300881997</v>
       </c>
       <c r="G12">
-        <v>1.981529996860703E-05</v>
+        <v>7.602151222037464E-06</v>
       </c>
       <c r="H12">
-        <v>1.748164578866456E-06</v>
+        <v>6.696429407108627E-07</v>
       </c>
       <c r="I12">
-        <v>0.007023573009286899</v>
+        <v>0.0007412120545879728</v>
       </c>
       <c r="J12">
-        <v>0.2679148356478546</v>
+        <v>0.02944733985200263</v>
       </c>
       <c r="K12">
-        <v>0.0002185182997242057</v>
+        <v>0.003003638279919019</v>
       </c>
       <c r="L12">
-        <v>0.1786632073470346</v>
+        <v>0.01437969985437207</v>
       </c>
       <c r="M12">
-        <v>3.117715357752167E-05</v>
+        <v>4.673569113795994E-05</v>
       </c>
       <c r="N12">
-        <v>1.748270715434375E-07</v>
+        <v>2.328325716763073E-08</v>
       </c>
       <c r="O12">
-        <v>0.0001756765738691238</v>
+        <v>4.418555646320203E-05</v>
       </c>
       <c r="P12">
-        <v>0.0004744203793874102</v>
+        <v>9.640463444990828E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0004852715962470032</v>
+        <v>0.0001018812387659618</v>
       </c>
       <c r="R12">
-        <v>0.0004213184355177342</v>
+        <v>0.0001275625089226693</v>
       </c>
       <c r="S12">
-        <v>3.041022823068992E-09</v>
+        <v>4.103873474079604E-10</v>
       </c>
       <c r="T12">
-        <v>6.011733097679691E-07</v>
+        <v>1.187097415312101E-07</v>
       </c>
       <c r="U12">
-        <v>0.003231658862818706</v>
+        <v>0.0045173398511638</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0003736670231602012</v>
+        <v>0.0002400585035751295</v>
       </c>
       <c r="B13">
-        <v>0.4197414960552314</v>
+        <v>0.1958231944714677</v>
       </c>
       <c r="C13">
-        <v>0.01735694911605258</v>
+        <v>0.005356596888449652</v>
       </c>
       <c r="D13">
-        <v>0.02142888671358929</v>
+        <v>0.009062752360128778</v>
       </c>
       <c r="E13">
-        <v>1.087724673730751</v>
+        <v>3.722526485034833</v>
       </c>
       <c r="F13">
-        <v>0.008745847180082582</v>
+        <v>0.06151576174396042</v>
       </c>
       <c r="G13">
-        <v>1.429857804026905E-05</v>
+        <v>1.936117976151524E-05</v>
       </c>
       <c r="H13">
-        <v>1.52760617656039E-06</v>
+        <v>5.24494617725423E-06</v>
       </c>
       <c r="I13">
-        <v>0.005329533745352403</v>
+        <v>0.002569847233078469</v>
       </c>
       <c r="J13">
-        <v>0.1728108976696197</v>
+        <v>0.1633231699228901</v>
       </c>
       <c r="K13">
-        <v>8.878999151902986E-05</v>
+        <v>0.000839480941741059</v>
       </c>
       <c r="L13">
-        <v>0.17486427082844</v>
+        <v>0.007997817584597828</v>
       </c>
       <c r="M13">
-        <v>0.0004609133823264467</v>
+        <v>0.0008360682969793757</v>
       </c>
       <c r="N13">
-        <v>1.678931466963876E-07</v>
+        <v>8.612594964988669E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001317687004881112</v>
+        <v>0.0001479688967858233</v>
       </c>
       <c r="P13">
-        <v>0.0004362982524317448</v>
+        <v>0.0003069426477261876</v>
       </c>
       <c r="Q13">
-        <v>0.0004458788720437829</v>
+        <v>0.000348456182706894</v>
       </c>
       <c r="R13">
-        <v>0.0003881229381924918</v>
+        <v>0.000286491040755782</v>
       </c>
       <c r="S13">
-        <v>2.898828723056617E-09</v>
+        <v>7.753338956729423E-10</v>
       </c>
       <c r="T13">
-        <v>5.308252369992181E-07</v>
+        <v>3.214812703469678E-07</v>
       </c>
       <c r="U13">
-        <v>0.002905565989393512</v>
+        <v>0.02591120977938842</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>7.224247781710064E-05</v>
+        <v>-0.0001546048859054758</v>
       </c>
       <c r="B14">
-        <v>0.08765780760027571</v>
+        <v>-2.244063496006575</v>
       </c>
       <c r="C14">
-        <v>0.001952532045147212</v>
+        <v>-0.1841468744517504</v>
       </c>
       <c r="D14">
-        <v>0.002502910752679732</v>
+        <v>-0.2532871240130704</v>
       </c>
       <c r="E14">
-        <v>0.1964120788656271</v>
+        <v>-4.773286479729556</v>
       </c>
       <c r="F14">
-        <v>0.01323766300881997</v>
+        <v>-0.0008331498570814456</v>
       </c>
       <c r="G14">
-        <v>7.602151222037464E-06</v>
+        <v>-5.044260523431398E-05</v>
       </c>
       <c r="H14">
-        <v>6.696429407108627E-07</v>
+        <v>-1.067918878280196E-05</v>
       </c>
       <c r="I14">
-        <v>0.0007412120545879728</v>
+        <v>-0.04124381884319508</v>
       </c>
       <c r="J14">
-        <v>0.02944733985200263</v>
+        <v>-2.946882631792158</v>
       </c>
       <c r="K14">
-        <v>0.003003638279919019</v>
+        <v>0.001310341253705806</v>
       </c>
       <c r="L14">
-        <v>0.01437969985437207</v>
+        <v>0.03815086740829317</v>
       </c>
       <c r="M14">
-        <v>4.673569113795994E-05</v>
+        <v>0.0002355820329309311</v>
       </c>
       <c r="N14">
-        <v>2.328325716763073E-08</v>
+        <v>-3.990337136955772E-07</v>
       </c>
       <c r="O14">
-        <v>4.418555646320203E-05</v>
+        <v>-8.698640479112732E-05</v>
       </c>
       <c r="P14">
-        <v>9.640463444990828E-05</v>
+        <v>-0.000291252851477</v>
       </c>
       <c r="Q14">
-        <v>0.0001018812387659618</v>
+        <v>-0.0002811214695340976</v>
       </c>
       <c r="R14">
-        <v>0.0001275625089226693</v>
+        <v>-0.002543511837472822</v>
       </c>
       <c r="S14">
-        <v>4.103873474079604E-10</v>
+        <v>-6.256803633038176E-09</v>
       </c>
       <c r="T14">
-        <v>1.187097415312101E-07</v>
+        <v>-2.952497171940518E-06</v>
       </c>
       <c r="U14">
-        <v>0.0045173398511638</v>
+        <v>0.0006718750158858506</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0004284700862457884</v>
+        <v>0.0002400585035751295</v>
       </c>
       <c r="B15">
-        <v>0.3288935756994468</v>
+        <v>0.1958231944714677</v>
       </c>
       <c r="C15">
-        <v>0.0485364243001826</v>
+        <v>0.005356596888449652</v>
       </c>
       <c r="D15">
-        <v>0.05918811858367698</v>
+        <v>0.009062752360128778</v>
       </c>
       <c r="E15">
-        <v>1.967832755022906</v>
+        <v>3.722526485034833</v>
       </c>
       <c r="F15">
-        <v>0.07420140472615938</v>
+        <v>0.06151576174396042</v>
       </c>
       <c r="G15">
-        <v>3.17458896671735E-05</v>
+        <v>1.936117976151524E-05</v>
       </c>
       <c r="H15">
-        <v>4.279187517606211E-06</v>
+        <v>5.24494617725423E-06</v>
       </c>
       <c r="I15">
-        <v>0.01037534943700759</v>
+        <v>0.002569847233078469</v>
       </c>
       <c r="J15">
-        <v>0.2403222493603244</v>
+        <v>0.1633231699228901</v>
       </c>
       <c r="K15">
-        <v>0.001457217996629351</v>
+        <v>0.000839480941741059</v>
       </c>
       <c r="L15">
-        <v>0.05939505334597658</v>
+        <v>0.007997817584597828</v>
       </c>
       <c r="M15">
-        <v>0.000586502443100687</v>
+        <v>0.0008360682969793757</v>
       </c>
       <c r="N15">
-        <v>1.576443281579067E-07</v>
+        <v>8.612594964988669E-08</v>
       </c>
       <c r="O15">
-        <v>0.0001855354879846679</v>
+        <v>0.0001479688967858233</v>
       </c>
       <c r="P15">
-        <v>0.0004207710701235887</v>
+        <v>0.0003069426477261876</v>
       </c>
       <c r="Q15">
-        <v>0.0004508808069032867</v>
+        <v>0.000348456182706894</v>
       </c>
       <c r="R15">
-        <v>0.001041682673736656</v>
+        <v>0.000286491040755782</v>
       </c>
       <c r="S15">
-        <v>1.680252969476976E-09</v>
+        <v>7.753338956729423E-10</v>
       </c>
       <c r="T15">
-        <v>5.138347828916757E-07</v>
+        <v>3.214812703469678E-07</v>
       </c>
       <c r="U15">
-        <v>0.02682752389710407</v>
+        <v>0.02591120977938842</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.0002400585035751295</v>
+        <v>-0.001127772408834262</v>
       </c>
       <c r="B16">
-        <v>0.1958231944714677</v>
+        <v>-2.963318660532902</v>
       </c>
       <c r="C16">
-        <v>0.005356596888449652</v>
+        <v>-0.1305959598580395</v>
       </c>
       <c r="D16">
-        <v>0.009062752360128778</v>
+        <v>-0.1881641401505527</v>
       </c>
       <c r="E16">
-        <v>3.722526485034833</v>
+        <v>-7.489396194102828</v>
       </c>
       <c r="F16">
-        <v>0.06151576174396042</v>
+        <v>-0.07598856640743074</v>
       </c>
       <c r="G16">
-        <v>1.936117976151524E-05</v>
+        <v>-0.0002960332976116935</v>
       </c>
       <c r="H16">
-        <v>5.24494617725423E-06</v>
+        <v>-2.385709768907709E-05</v>
       </c>
       <c r="I16">
-        <v>0.002569847233078469</v>
+        <v>-0.07641798009789989</v>
       </c>
       <c r="J16">
-        <v>0.1633231699228901</v>
+        <v>-1.821205943289479</v>
       </c>
       <c r="K16">
-        <v>0.000839480941741059</v>
+        <v>0.008253626188948971</v>
       </c>
       <c r="L16">
-        <v>0.007997817584597828</v>
+        <v>-0.02760137780893683</v>
       </c>
       <c r="M16">
-        <v>0.0008360682969793757</v>
+        <v>-0.0008452763143509842</v>
       </c>
       <c r="N16">
-        <v>8.612594964988669E-08</v>
+        <v>-2.958562249586222E-07</v>
       </c>
       <c r="O16">
-        <v>0.0001479688967858233</v>
+        <v>-0.0006194575075397676</v>
       </c>
       <c r="P16">
-        <v>0.0003069426477261876</v>
+        <v>-0.0008561062109705411</v>
       </c>
       <c r="Q16">
-        <v>0.000348456182706894</v>
+        <v>-0.0008896668925942064</v>
       </c>
       <c r="R16">
-        <v>0.000286491040755782</v>
+        <v>-0.005094434706654907</v>
       </c>
       <c r="S16">
-        <v>7.753338956729423E-10</v>
+        <v>-9.290511205795419E-09</v>
       </c>
       <c r="T16">
-        <v>3.214812703469678E-07</v>
+        <v>-3.82065486301615E-06</v>
       </c>
       <c r="U16">
-        <v>0.02591120977938842</v>
+        <v>-0.0253558359049938</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0001546048859054758</v>
+        <v>3.223766939979848E-05</v>
       </c>
       <c r="B17">
-        <v>-2.244063496006575</v>
+        <v>0.00461759738298128</v>
       </c>
       <c r="C17">
-        <v>-0.1841468744517504</v>
+        <v>0.001113009605175791</v>
       </c>
       <c r="D17">
-        <v>-0.2532871240130704</v>
+        <v>0.001497187248519454</v>
       </c>
       <c r="E17">
-        <v>-4.773286479729556</v>
+        <v>0.2282113299907694</v>
       </c>
       <c r="F17">
-        <v>-0.0008331498570814456</v>
+        <v>0.001119529096865705</v>
       </c>
       <c r="G17">
-        <v>-5.044260523431398E-05</v>
+        <v>2.727407246935147E-06</v>
       </c>
       <c r="H17">
-        <v>-1.067918878280196E-05</v>
+        <v>3.972295538992739E-07</v>
       </c>
       <c r="I17">
-        <v>-0.04124381884319508</v>
+        <v>0.0004958955009420369</v>
       </c>
       <c r="J17">
-        <v>-2.946882631792158</v>
+        <v>0.02541819496996259</v>
       </c>
       <c r="K17">
-        <v>0.001310341253705806</v>
+        <v>0.0001296991490375662</v>
       </c>
       <c r="L17">
-        <v>0.03815086740829317</v>
+        <v>0.0002784031098494688</v>
       </c>
       <c r="M17">
-        <v>0.0002355820329309311</v>
+        <v>-6.446810775069605E-07</v>
       </c>
       <c r="N17">
-        <v>-3.990337136955772E-07</v>
+        <v>1.518256837967759E-09</v>
       </c>
       <c r="O17">
-        <v>-8.698640479112732E-05</v>
+        <v>1.308117931896792E-05</v>
       </c>
       <c r="P17">
-        <v>-0.000291252851477</v>
+        <v>1.253186592214483E-05</v>
       </c>
       <c r="Q17">
-        <v>-0.0002811214695340976</v>
+        <v>1.324518728016579E-05</v>
       </c>
       <c r="R17">
-        <v>-0.002543511837472822</v>
+        <v>2.327840181697963E-05</v>
       </c>
       <c r="S17">
-        <v>-6.256803633038176E-09</v>
+        <v>2.930712836795227E-11</v>
       </c>
       <c r="T17">
-        <v>-2.952497171940518E-06</v>
+        <v>2.000725056714027E-08</v>
       </c>
       <c r="U17">
-        <v>0.0006718750158858506</v>
+        <v>0.0002862359668852807</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0002400584999994662</v>
+        <v>0.0003172606079426577</v>
       </c>
       <c r="B18">
-        <v>0.1958231915536087</v>
+        <v>0.01502606675785721</v>
       </c>
       <c r="C18">
-        <v>0.005356596808677823</v>
+        <v>0.00987611054918874</v>
       </c>
       <c r="D18">
-        <v>0.009062752225148667</v>
+        <v>0.01374714296464482</v>
       </c>
       <c r="E18">
-        <v>3.72252642957962</v>
+        <v>3.036110622004039</v>
       </c>
       <c r="F18">
-        <v>0.06151576082734116</v>
+        <v>0.003432919316129022</v>
       </c>
       <c r="G18">
-        <v>1.936117947310537E-05</v>
+        <v>1.63774660270677E-05</v>
       </c>
       <c r="H18">
-        <v>5.244946099098771E-06</v>
+        <v>2.978082120481051E-07</v>
       </c>
       <c r="I18">
-        <v>0.002569847194813665</v>
+        <v>0.004551242759045481</v>
       </c>
       <c r="J18">
-        <v>0.163323167490428</v>
+        <v>0.1109958649235003</v>
       </c>
       <c r="K18">
-        <v>0.0008394809292340032</v>
+        <v>5.68486893534058E-05</v>
       </c>
       <c r="L18">
-        <v>0.007997817465514851</v>
+        <v>0.0005643990749493046</v>
       </c>
       <c r="M18">
-        <v>0.0008360682844995446</v>
+        <v>0.002545944302376311</v>
       </c>
       <c r="N18">
-        <v>8.612594836659345E-08</v>
+        <v>4.247286111130902E-09</v>
       </c>
       <c r="O18">
-        <v>0.000147968894581444</v>
+        <v>0.0001205650678564698</v>
       </c>
       <c r="P18">
-        <v>0.0003069426431530231</v>
+        <v>5.354748269544414E-05</v>
       </c>
       <c r="Q18">
-        <v>0.0003484561775151617</v>
+        <v>5.566771324628818E-05</v>
       </c>
       <c r="R18">
-        <v>0.0002864910364873859</v>
+        <v>-3.59376702248496E-05</v>
       </c>
       <c r="S18">
-        <v>7.753338841214483E-10</v>
+        <v>1.754642806957956E-10</v>
       </c>
       <c r="T18">
-        <v>3.214812655573614E-07</v>
+        <v>1.300716171430608E-07</v>
       </c>
       <c r="U18">
-        <v>0.02591120939328662</v>
+        <v>0.001277530635914517</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.000195382806485787</v>
+        <v>0.003211433251915275</v>
       </c>
       <c r="B19">
-        <v>-2.375632054999972</v>
+        <v>2.182686027637393</v>
       </c>
       <c r="C19">
-        <v>-0.1772014362286849</v>
+        <v>0.04087487210664682</v>
       </c>
       <c r="D19">
-        <v>-0.2453546771927078</v>
+        <v>0.05159469984481234</v>
       </c>
       <c r="E19">
-        <v>-5.287020089975822</v>
+        <v>7.351983738297398</v>
       </c>
       <c r="F19">
-        <v>-0.004926121926282681</v>
+        <v>0.2589782437647937</v>
       </c>
       <c r="G19">
-        <v>-5.080522421880108E-05</v>
+        <v>0.0005037090559078802</v>
       </c>
       <c r="H19">
-        <v>-1.062713686423404E-05</v>
+        <v>-0.002462599941708993</v>
       </c>
       <c r="I19">
-        <v>-0.03722062388174339</v>
+        <v>0.02425252832053517</v>
       </c>
       <c r="J19">
-        <v>-2.75757212674337</v>
+        <v>2.397394009516906</v>
       </c>
       <c r="K19">
-        <v>0.001315137323785707</v>
+        <v>0.05817103554624409</v>
       </c>
       <c r="L19">
-        <v>0.03003832873613529</v>
+        <v>2.002549866448839</v>
       </c>
       <c r="M19">
-        <v>0.0001184382714364963</v>
+        <v>0.001342251397454445</v>
       </c>
       <c r="N19">
-        <v>-3.93264125908641E-07</v>
+        <v>3.000385312227038E-07</v>
       </c>
       <c r="O19">
-        <v>-0.0001018469871329246</v>
+        <v>0.002814345994314785</v>
       </c>
       <c r="P19">
-        <v>-0.0003455179915475273</v>
+        <v>0.004199702844566218</v>
       </c>
       <c r="Q19">
-        <v>-0.0003392612115387233</v>
+        <v>0.004308237711478336</v>
       </c>
       <c r="R19">
-        <v>-0.002486630578160042</v>
+        <v>0.06643524726671297</v>
       </c>
       <c r="S19">
-        <v>-6.713782399915345E-09</v>
+        <v>2.555756955868541E-08</v>
       </c>
       <c r="T19">
-        <v>-3.027301231611748E-06</v>
+        <v>4.57396973789693E-06</v>
       </c>
       <c r="U19">
-        <v>-0.0008946404345192755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>0.0002400585035751295</v>
-      </c>
-      <c r="B20">
-        <v>0.1958231944714677</v>
-      </c>
-      <c r="C20">
-        <v>0.005356596888449652</v>
-      </c>
-      <c r="D20">
-        <v>0.009062752360128778</v>
-      </c>
-      <c r="E20">
-        <v>3.722526485034833</v>
-      </c>
-      <c r="F20">
-        <v>0.06151576174396042</v>
-      </c>
-      <c r="G20">
-        <v>1.936117976151524E-05</v>
-      </c>
-      <c r="H20">
-        <v>5.24494617725423E-06</v>
-      </c>
-      <c r="I20">
-        <v>0.002569847233078469</v>
-      </c>
-      <c r="J20">
-        <v>0.1633231699228901</v>
-      </c>
-      <c r="K20">
-        <v>0.000839480941741059</v>
-      </c>
-      <c r="L20">
-        <v>0.007997817584597828</v>
-      </c>
-      <c r="M20">
-        <v>0.0008360682969793757</v>
-      </c>
-      <c r="N20">
-        <v>8.612594964988669E-08</v>
-      </c>
-      <c r="O20">
-        <v>0.0001479688967858233</v>
-      </c>
-      <c r="P20">
-        <v>0.0003069426477261876</v>
-      </c>
-      <c r="Q20">
-        <v>0.000348456182706894</v>
-      </c>
-      <c r="R20">
-        <v>0.000286491040755782</v>
-      </c>
-      <c r="S20">
-        <v>7.753338956729423E-10</v>
-      </c>
-      <c r="T20">
-        <v>3.214812703469678E-07</v>
-      </c>
-      <c r="U20">
-        <v>0.02591120977938842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <v>-0.001127772408834262</v>
-      </c>
-      <c r="B21">
-        <v>-2.963318660532902</v>
-      </c>
-      <c r="C21">
-        <v>-0.1305959598580395</v>
-      </c>
-      <c r="D21">
-        <v>-0.1881641401505527</v>
-      </c>
-      <c r="E21">
-        <v>-7.489396194102828</v>
-      </c>
-      <c r="F21">
-        <v>-0.07598856640743074</v>
-      </c>
-      <c r="G21">
-        <v>-0.0002960332976116935</v>
-      </c>
-      <c r="H21">
-        <v>-2.385709768907709E-05</v>
-      </c>
-      <c r="I21">
-        <v>-0.07641798009789989</v>
-      </c>
-      <c r="J21">
-        <v>-1.821205943289479</v>
-      </c>
-      <c r="K21">
-        <v>0.008253626188948971</v>
-      </c>
-      <c r="L21">
-        <v>-0.02760137780893683</v>
-      </c>
-      <c r="M21">
-        <v>-0.0008452763143509842</v>
-      </c>
-      <c r="N21">
-        <v>-2.958562249586222E-07</v>
-      </c>
-      <c r="O21">
-        <v>-0.0006194575075397676</v>
-      </c>
-      <c r="P21">
-        <v>-0.0008561062109705411</v>
-      </c>
-      <c r="Q21">
-        <v>-0.0008896668925942064</v>
-      </c>
-      <c r="R21">
-        <v>-0.005094434706654907</v>
-      </c>
-      <c r="S21">
-        <v>-9.290511205795419E-09</v>
-      </c>
-      <c r="T21">
-        <v>-3.82065486301615E-06</v>
-      </c>
-      <c r="U21">
-        <v>-0.0253558359049938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>3.223766940017136E-05</v>
-      </c>
-      <c r="B22">
-        <v>0.004617597383024384</v>
-      </c>
-      <c r="C22">
-        <v>0.001113009605185374</v>
-      </c>
-      <c r="D22">
-        <v>0.001497187248532507</v>
-      </c>
-      <c r="E22">
-        <v>0.2282113299929964</v>
-      </c>
-      <c r="F22">
-        <v>0.00111952909687468</v>
-      </c>
-      <c r="G22">
-        <v>2.727407246956895E-06</v>
-      </c>
-      <c r="H22">
-        <v>3.972295539009058E-07</v>
-      </c>
-      <c r="I22">
-        <v>0.0004958955009468325</v>
-      </c>
-      <c r="J22">
-        <v>0.02541819497021106</v>
-      </c>
-      <c r="K22">
-        <v>0.0001296991490379816</v>
-      </c>
-      <c r="L22">
-        <v>0.0002784031098624882</v>
-      </c>
-      <c r="M22">
-        <v>-6.446810883018274E-07</v>
-      </c>
-      <c r="N22">
-        <v>1.518256837991232E-09</v>
-      </c>
-      <c r="O22">
-        <v>1.308117931910422E-05</v>
-      </c>
-      <c r="P22">
-        <v>1.253186592229927E-05</v>
-      </c>
-      <c r="Q22">
-        <v>1.324518728032596E-05</v>
-      </c>
-      <c r="R22">
-        <v>2.327840181713646E-05</v>
-      </c>
-      <c r="S22">
-        <v>2.930712836833625E-11</v>
-      </c>
-      <c r="T22">
-        <v>2.000725056733894E-08</v>
-      </c>
-      <c r="U22">
-        <v>0.0002862359668850061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
-        <v>0.0003172606079428148</v>
-      </c>
-      <c r="B23">
-        <v>0.01502606675786426</v>
-      </c>
-      <c r="C23">
-        <v>0.009876110549192088</v>
-      </c>
-      <c r="D23">
-        <v>0.01374714296464944</v>
-      </c>
-      <c r="E23">
-        <v>3.036110622004859</v>
-      </c>
-      <c r="F23">
-        <v>0.0034329193161314</v>
-      </c>
-      <c r="G23">
-        <v>1.637746602707206E-05</v>
-      </c>
-      <c r="H23">
-        <v>2.978082120485402E-07</v>
-      </c>
-      <c r="I23">
-        <v>0.004551242759046064</v>
-      </c>
-      <c r="J23">
-        <v>0.110995864923599</v>
-      </c>
-      <c r="K23">
-        <v>5.684868935352285E-05</v>
-      </c>
-      <c r="L23">
-        <v>0.0005643990749609936</v>
-      </c>
-      <c r="M23">
-        <v>0.002545944302376388</v>
-      </c>
-      <c r="N23">
-        <v>4.247286111135711E-09</v>
-      </c>
-      <c r="O23">
-        <v>0.000120565067856513</v>
-      </c>
-      <c r="P23">
-        <v>5.354748269548926E-05</v>
-      </c>
-      <c r="Q23">
-        <v>5.566771324633547E-05</v>
-      </c>
-      <c r="R23">
-        <v>-3.593767022481711E-05</v>
-      </c>
-      <c r="S23">
-        <v>1.754642806959737E-10</v>
-      </c>
-      <c r="T23">
-        <v>1.30071617143119E-07</v>
-      </c>
-      <c r="U23">
-        <v>0.001277530635915279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
-        <v>0.003211433251915275</v>
-      </c>
-      <c r="B24">
-        <v>2.182686027637393</v>
-      </c>
-      <c r="C24">
-        <v>0.04087487210664682</v>
-      </c>
-      <c r="D24">
-        <v>0.05159469984481234</v>
-      </c>
-      <c r="E24">
-        <v>7.351983738297398</v>
-      </c>
-      <c r="F24">
-        <v>0.2589782437647937</v>
-      </c>
-      <c r="G24">
-        <v>0.0005037090559078802</v>
-      </c>
-      <c r="H24">
-        <v>-0.002462599941708993</v>
-      </c>
-      <c r="I24">
-        <v>0.02425252832053517</v>
-      </c>
-      <c r="J24">
-        <v>2.397394009516906</v>
-      </c>
-      <c r="K24">
-        <v>0.05817103554624409</v>
-      </c>
-      <c r="L24">
-        <v>2.002549866448839</v>
-      </c>
-      <c r="M24">
-        <v>0.001342251397454445</v>
-      </c>
-      <c r="N24">
-        <v>3.000385312227038E-07</v>
-      </c>
-      <c r="O24">
-        <v>0.002814345994314785</v>
-      </c>
-      <c r="P24">
-        <v>0.004199702844566218</v>
-      </c>
-      <c r="Q24">
-        <v>0.004308237711478336</v>
-      </c>
-      <c r="R24">
-        <v>0.06643524726671297</v>
-      </c>
-      <c r="S24">
-        <v>2.555756955868541E-08</v>
-      </c>
-      <c r="T24">
-        <v>4.57396973789693E-06</v>
-      </c>
-      <c r="U24">
         <v>0.08608849814230052</v>
       </c>
     </row>

--- a/Brighway/Results/Lobster - CONSQ_recipe_unq.xlsx
+++ b/Brighway/Results/Lobster - CONSQ_recipe_unq.xlsx
@@ -16,67 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
 </sst>
 </file>
@@ -507,1172 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.00531702183778857</v>
+        <v>0.005317021818754739</v>
       </c>
       <c r="B2">
-        <v>3.931163797123976</v>
+        <v>0.5222247759713965</v>
       </c>
       <c r="C2">
-        <v>0.1190315651807259</v>
+        <v>0.1190315655258765</v>
       </c>
       <c r="D2">
-        <v>0.1386790728029177</v>
+        <v>0.1386790732832144</v>
       </c>
       <c r="E2">
-        <v>13.51795690118961</v>
+        <v>13.51795700100622</v>
       </c>
       <c r="F2">
-        <v>0.1339164235705855</v>
+        <v>0.1339164221879771</v>
       </c>
       <c r="G2">
-        <v>-0.0001931852591525595</v>
+        <v>-0.0001931852582326756</v>
       </c>
       <c r="H2">
-        <v>0.001301557517801617</v>
+        <v>0.00130155751780191</v>
       </c>
       <c r="I2">
-        <v>0.02513227835296272</v>
+        <v>0.02513227849898195</v>
       </c>
       <c r="J2">
-        <v>0.6714160014594852</v>
+        <v>0.6714160141919188</v>
       </c>
       <c r="K2">
-        <v>0.0109941075199142</v>
+        <v>0.01099410750484108</v>
       </c>
       <c r="L2">
-        <v>2.001476777870654</v>
+        <v>2.001476774220625</v>
       </c>
       <c r="M2">
-        <v>0.007540756052875237</v>
+        <v>0.007540756026099856</v>
       </c>
       <c r="N2">
-        <v>-1.554646263379492E-06</v>
+        <v>-1.554646267320638E-06</v>
       </c>
       <c r="O2">
-        <v>0.002249286933623713</v>
+        <v>0.002249286916015994</v>
       </c>
       <c r="P2">
-        <v>0.004520042604170459</v>
+        <v>0.004520042515284568</v>
       </c>
       <c r="Q2">
-        <v>0.004614409696634301</v>
+        <v>0.004614409607086653</v>
       </c>
       <c r="R2">
-        <v>0.006195869265967375</v>
+        <v>0.006195869271587506</v>
       </c>
       <c r="S2">
-        <v>3.060145857294922E-08</v>
+        <v>2.105616885226566E-08</v>
       </c>
       <c r="T2">
-        <v>5.315292346052517E-06</v>
+        <v>2.151838548314793E-06</v>
       </c>
       <c r="U2">
-        <v>0.02516182509201734</v>
+        <v>0.02516182436790458</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>7.061852162440293E-05</v>
+        <v>7.061852163805775E-05</v>
       </c>
       <c r="B3">
-        <v>0.004592144233441703</v>
+        <v>0.003607684906908342</v>
       </c>
       <c r="C3">
-        <v>0.001903251328730233</v>
+        <v>0.001903251328702273</v>
       </c>
       <c r="D3">
-        <v>0.002609367440933142</v>
+        <v>0.002609367440665699</v>
       </c>
       <c r="E3">
-        <v>0.568641228915902</v>
+        <v>0.5686412285085176</v>
       </c>
       <c r="F3">
-        <v>0.001095786629864496</v>
+        <v>0.001095786629617734</v>
       </c>
       <c r="G3">
-        <v>4.087117608129878E-06</v>
+        <v>4.087117605071815E-06</v>
       </c>
       <c r="H3">
-        <v>1.186793961363511E-07</v>
+        <v>1.186793961911899E-07</v>
       </c>
       <c r="I3">
-        <v>0.0006023946191143742</v>
+        <v>0.0006023946171659584</v>
       </c>
       <c r="J3">
-        <v>0.05211590915167232</v>
+        <v>0.05211590911819076</v>
       </c>
       <c r="K3">
-        <v>0.0007589446962757218</v>
+        <v>0.0007589446959427226</v>
       </c>
       <c r="L3">
-        <v>0.0008459568174115382</v>
+        <v>0.0008459568187587978</v>
       </c>
       <c r="M3">
-        <v>-0.0002255722433638385</v>
+        <v>-0.0002255722433998108</v>
       </c>
       <c r="N3">
-        <v>2.921747985327651E-09</v>
+        <v>2.921747985056191E-09</v>
       </c>
       <c r="O3">
-        <v>2.289262690870313E-05</v>
+        <v>2.289262691234492E-05</v>
       </c>
       <c r="P3">
-        <v>1.822782826078561E-05</v>
+        <v>1.822782831074602E-05</v>
       </c>
       <c r="Q3">
-        <v>1.880915165141834E-05</v>
+        <v>1.880915170143362E-05</v>
       </c>
       <c r="R3">
-        <v>1.873778853493358E-05</v>
+        <v>1.873778849454021E-05</v>
       </c>
       <c r="S3">
-        <v>4.858663183083158E-11</v>
+        <v>4.583007052433393E-11</v>
       </c>
       <c r="T3">
-        <v>3.257777988942143E-08</v>
+        <v>3.166418976998341E-08</v>
       </c>
       <c r="U3">
-        <v>0.0002493563734899737</v>
+        <v>0.00024935637344328</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716192980148</v>
+        <v>0.00699271622674749</v>
       </c>
       <c r="B4">
-        <v>3.025216582043961</v>
+        <v>2.903410319917302</v>
       </c>
       <c r="C4">
-        <v>0.07038871980747222</v>
+        <v>0.07038871968046111</v>
       </c>
       <c r="D4">
-        <v>0.09440798007746776</v>
+        <v>0.09440797994558323</v>
       </c>
       <c r="E4">
-        <v>8.341453842147368</v>
+        <v>8.341453892285852</v>
       </c>
       <c r="F4">
-        <v>1.848787728890795</v>
+        <v>1.848787729815978</v>
       </c>
       <c r="G4">
-        <v>0.0007213160976975371</v>
+        <v>0.0007213160981091555</v>
       </c>
       <c r="H4">
-        <v>0.0001023750980384405</v>
+        <v>0.0001023750980898039</v>
       </c>
       <c r="I4">
-        <v>0.08131586853850858</v>
+        <v>0.08131586849462522</v>
       </c>
       <c r="J4">
-        <v>1.694323747239579</v>
+        <v>1.694323749178593</v>
       </c>
       <c r="K4">
-        <v>0.1197926434941612</v>
+        <v>0.1197926434414684</v>
       </c>
       <c r="L4">
-        <v>0.1250208540854954</v>
+        <v>0.1250208642363796</v>
       </c>
       <c r="M4">
-        <v>0.003473829048012464</v>
+        <v>0.003473829071712301</v>
       </c>
       <c r="N4">
-        <v>4.730718282312246E-07</v>
+        <v>4.730718319279898E-07</v>
       </c>
       <c r="O4">
-        <v>0.003900919283903233</v>
+        <v>0.003900919303973863</v>
       </c>
       <c r="P4">
-        <v>0.006715645304208855</v>
+        <v>0.00671564537565682</v>
       </c>
       <c r="Q4">
-        <v>0.007422234044946975</v>
+        <v>0.007422234116243872</v>
       </c>
       <c r="R4">
-        <v>0.04519907278990927</v>
+        <v>0.04519907278790763</v>
       </c>
       <c r="S4">
-        <v>1.265935666184138E-08</v>
+        <v>1.231828992942677E-08</v>
       </c>
       <c r="T4">
-        <v>6.022988917064276E-06</v>
+        <v>5.909946422869903E-06</v>
       </c>
       <c r="U4">
-        <v>0.7120457892336866</v>
+        <v>0.7120457896850155</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.228342434547025E-05</v>
+        <v>2.228342435347737E-05</v>
       </c>
       <c r="B5">
-        <v>0.001447673711616993</v>
+        <v>0.001446017214714107</v>
       </c>
       <c r="C5">
-        <v>0.0007034450137783154</v>
+        <v>0.0007034450138438518</v>
       </c>
       <c r="D5">
-        <v>0.001901529265919015</v>
+        <v>0.001901529265999805</v>
       </c>
       <c r="E5">
-        <v>0.1757922925991405</v>
+        <v>0.175792292585522</v>
       </c>
       <c r="F5">
-        <v>0.0003603341654213016</v>
+        <v>0.0003603341659134862</v>
       </c>
       <c r="G5">
-        <v>8.586114513312623E-07</v>
+        <v>8.586114517349578E-07</v>
       </c>
       <c r="H5">
-        <v>4.031062349810851E-08</v>
+        <v>4.03106235751761E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002633467596028685</v>
+        <v>0.0002633467595975095</v>
       </c>
       <c r="J5">
-        <v>0.01045292782250997</v>
+        <v>0.01045292782293693</v>
       </c>
       <c r="K5">
-        <v>-1.847186048882281E-05</v>
+        <v>-1.847186050425684E-05</v>
       </c>
       <c r="L5">
-        <v>6.659755205042397E-05</v>
+        <v>6.659755309182569E-05</v>
       </c>
       <c r="M5">
-        <v>0.0003001268139624544</v>
+        <v>0.0003001268140191491</v>
       </c>
       <c r="N5">
-        <v>2.76248103958851E-09</v>
+        <v>2.762481040564531E-09</v>
       </c>
       <c r="O5">
-        <v>8.802857102580398E-06</v>
+        <v>8.802857108122979E-06</v>
       </c>
       <c r="P5">
-        <v>1.05332007612404E-05</v>
+        <v>1.053320078192902E-05</v>
       </c>
       <c r="Q5">
-        <v>1.080501554663151E-05</v>
+        <v>1.080501556771366E-05</v>
       </c>
       <c r="R5">
-        <v>-2.767847795995529E-06</v>
+        <v>-2.767847790726778E-06</v>
       </c>
       <c r="S5">
-        <v>1.4033692047269E-11</v>
+        <v>1.402905374320589E-11</v>
       </c>
       <c r="T5">
-        <v>1.01377254789515E-08</v>
+        <v>1.013618800299039E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001731333294774067</v>
+        <v>0.0001731333296798118</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.02050901714778922</v>
+        <v>0.02050901715472588</v>
       </c>
       <c r="B6">
-        <v>2.11479886803087</v>
+        <v>1.979007397530371</v>
       </c>
       <c r="C6">
-        <v>0.6741814191890961</v>
+        <v>0.6741814188742182</v>
       </c>
       <c r="D6">
-        <v>0.9073947001788052</v>
+        <v>0.9073946996907001</v>
       </c>
       <c r="E6">
-        <v>142.5049592399731</v>
+        <v>142.5049591207875</v>
       </c>
       <c r="F6">
-        <v>0.5410164582435485</v>
+        <v>0.5410164575367836</v>
       </c>
       <c r="G6">
-        <v>0.001890982889244008</v>
+        <v>0.001890982886554404</v>
       </c>
       <c r="H6">
-        <v>7.539097603518797E-05</v>
+        <v>7.539097592580418E-05</v>
       </c>
       <c r="I6">
-        <v>0.1955363775460773</v>
+        <v>0.1955363764898852</v>
       </c>
       <c r="J6">
-        <v>16.59090690815166</v>
+        <v>16.59090689274364</v>
       </c>
       <c r="K6">
-        <v>0.1967138476254507</v>
+        <v>0.1967138471342996</v>
       </c>
       <c r="L6">
-        <v>0.1793857929621094</v>
+        <v>0.1793857925464356</v>
       </c>
       <c r="M6">
-        <v>-0.04832067459926767</v>
+        <v>-0.0483206746460933</v>
       </c>
       <c r="N6">
-        <v>1.012114027063412E-06</v>
+        <v>1.012114027046613E-06</v>
       </c>
       <c r="O6">
-        <v>0.008465541858933992</v>
+        <v>0.008465541858773743</v>
       </c>
       <c r="P6">
-        <v>0.007021152966864775</v>
+        <v>0.007021152989563475</v>
       </c>
       <c r="Q6">
-        <v>0.007204192972081411</v>
+        <v>0.007204192994800859</v>
       </c>
       <c r="R6">
-        <v>0.01100229843129399</v>
+        <v>0.01100229840749459</v>
       </c>
       <c r="S6">
-        <v>1.624779485955478E-08</v>
+        <v>1.586756836548348E-08</v>
       </c>
       <c r="T6">
-        <v>1.174389914971303E-05</v>
+        <v>1.161787946980699E-05</v>
       </c>
       <c r="U6">
-        <v>0.1038974327030175</v>
+        <v>0.1038974326427132</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.001022410065761786</v>
+        <v>0.001022410066489967</v>
       </c>
       <c r="B7">
-        <v>0.1673284721271996</v>
+        <v>0.1671249427548749</v>
       </c>
       <c r="C7">
-        <v>0.02542561158455311</v>
+        <v>0.02542561155423113</v>
       </c>
       <c r="D7">
-        <v>0.03525272077172122</v>
+        <v>0.03525272073031423</v>
       </c>
       <c r="E7">
-        <v>7.355646472191376</v>
+        <v>7.355646463085804</v>
       </c>
       <c r="F7">
-        <v>0.06922828454099925</v>
+        <v>0.06922828456128438</v>
       </c>
       <c r="G7">
-        <v>5.755860519702804E-05</v>
+        <v>5.755860517280525E-05</v>
       </c>
       <c r="H7">
-        <v>5.097098926573616E-06</v>
+        <v>5.097098934114988E-06</v>
       </c>
       <c r="I7">
-        <v>0.01405179598057464</v>
+        <v>0.01405179595949471</v>
       </c>
       <c r="J7">
-        <v>0.3317613420712199</v>
+        <v>0.3317613412697374</v>
       </c>
       <c r="K7">
-        <v>0.002150464182967634</v>
+        <v>0.002150464178177809</v>
       </c>
       <c r="L7">
-        <v>0.001500136619436619</v>
+        <v>0.001500136644967943</v>
       </c>
       <c r="M7">
-        <v>0.006047829516838142</v>
+        <v>0.006047829525576741</v>
       </c>
       <c r="N7">
-        <v>6.89200673281937E-08</v>
+        <v>6.892006747645827E-08</v>
       </c>
       <c r="O7">
-        <v>0.0004143913476027914</v>
+        <v>0.0004143913483399673</v>
       </c>
       <c r="P7">
-        <v>0.0003686160851395476</v>
+        <v>0.0003686160887140026</v>
       </c>
       <c r="Q7">
-        <v>0.0003943382349545143</v>
+        <v>0.0003943382385267417</v>
       </c>
       <c r="R7">
-        <v>0.001892874627086414</v>
+        <v>0.001892874626871971</v>
       </c>
       <c r="S7">
-        <v>8.93500829642627E-10</v>
+        <v>8.929309324996541E-10</v>
       </c>
       <c r="T7">
-        <v>5.425077915242567E-07</v>
+        <v>5.423183344144154E-07</v>
       </c>
       <c r="U7">
-        <v>0.02615081598892698</v>
+        <v>0.02615081600472714</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.005772319484942317</v>
+        <v>0.005772319556837401</v>
       </c>
       <c r="B8">
-        <v>2.907744321016232</v>
+        <v>2.224921690574283</v>
       </c>
       <c r="C8">
-        <v>0.06086610608205167</v>
+        <v>0.06086610625252338</v>
       </c>
       <c r="D8">
-        <v>0.08128839568554318</v>
+        <v>0.08128839595101572</v>
       </c>
       <c r="E8">
-        <v>7.538243977161075</v>
+        <v>7.538244075765927</v>
       </c>
       <c r="F8">
-        <v>1.300874184440054</v>
+        <v>1.300874186978029</v>
       </c>
       <c r="G8">
-        <v>0.000695072124505258</v>
+        <v>0.0006950721257272134</v>
       </c>
       <c r="H8">
-        <v>0.0001565284555869581</v>
+        <v>0.0001565284557597277</v>
       </c>
       <c r="I8">
-        <v>0.06745111228970661</v>
+        <v>0.06745111252340093</v>
       </c>
       <c r="J8">
-        <v>1.659919565231733</v>
+        <v>1.659919572887034</v>
       </c>
       <c r="K8">
-        <v>0.08998677116139132</v>
+        <v>0.08998677109967103</v>
       </c>
       <c r="L8">
-        <v>0.6312150435524813</v>
+        <v>0.6312150608149103</v>
       </c>
       <c r="M8">
-        <v>0.003212259632709414</v>
+        <v>0.003212259730598823</v>
       </c>
       <c r="N8">
-        <v>6.293643580216337E-07</v>
+        <v>6.293643655739248E-07</v>
       </c>
       <c r="O8">
-        <v>0.003389902818339616</v>
+        <v>0.003389902859911842</v>
       </c>
       <c r="P8">
-        <v>0.00551668348726404</v>
+        <v>0.005516683636037641</v>
       </c>
       <c r="Q8">
-        <v>0.006030270423647498</v>
+        <v>0.006030270573204396</v>
       </c>
       <c r="R8">
-        <v>0.04233379402824992</v>
+        <v>0.04233379403122154</v>
       </c>
       <c r="S8">
-        <v>1.634535373999671E-08</v>
+        <v>1.443339840075321E-08</v>
       </c>
       <c r="T8">
-        <v>5.531586339196344E-06</v>
+        <v>4.897914788407995E-06</v>
       </c>
       <c r="U8">
-        <v>0.4957872296450114</v>
+        <v>0.495787230768289</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.002659737824686377</v>
+        <v>0.002659737829599434</v>
       </c>
       <c r="B9">
-        <v>2.604272550997</v>
+        <v>0.2761496512186396</v>
       </c>
       <c r="C9">
-        <v>0.110822395987861</v>
+        <v>0.1108223961611652</v>
       </c>
       <c r="D9">
-        <v>0.1350916962555057</v>
+        <v>0.1350916964880186</v>
       </c>
       <c r="E9">
-        <v>7.766851187306683</v>
+        <v>7.766851208187448</v>
       </c>
       <c r="F9">
-        <v>0.06950157301760251</v>
+        <v>0.06950157321102308</v>
       </c>
       <c r="G9">
-        <v>5.531609900451597E-05</v>
+        <v>5.531609961270874E-05</v>
       </c>
       <c r="H9">
-        <v>0.0001811265966102774</v>
+        <v>0.0001811265966820863</v>
       </c>
       <c r="I9">
-        <v>0.03211676215009638</v>
+        <v>0.03211676225800077</v>
       </c>
       <c r="J9">
-        <v>0.9984957402551389</v>
+        <v>0.9984957443329706</v>
       </c>
       <c r="K9">
-        <v>0.00136954420366437</v>
+        <v>0.001369544224343813</v>
       </c>
       <c r="L9">
-        <v>1.119773469301994</v>
+        <v>1.119773468934163</v>
       </c>
       <c r="M9">
-        <v>0.003081440595948787</v>
+        <v>0.003081440634652279</v>
       </c>
       <c r="N9">
-        <v>6.185581060604655E-07</v>
+        <v>6.185581061654424E-07</v>
       </c>
       <c r="O9">
-        <v>0.0009940752983426864</v>
+        <v>0.0009940753002480678</v>
       </c>
       <c r="P9">
-        <v>0.002783704052580196</v>
+        <v>0.002783704052657597</v>
       </c>
       <c r="Q9">
-        <v>0.002846241555170879</v>
+        <v>0.00284624155544929</v>
       </c>
       <c r="R9">
-        <v>0.002923296350288404</v>
+        <v>0.00292329635646048</v>
       </c>
       <c r="S9">
-        <v>1.836915669035447E-08</v>
+        <v>1.185023471768239E-08</v>
       </c>
       <c r="T9">
-        <v>3.385349297174253E-06</v>
+        <v>1.224855204394203E-06</v>
       </c>
       <c r="U9">
-        <v>0.02054473035261248</v>
+        <v>0.02054473039072056</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0005038162831144612</v>
+        <v>0.0005038162847968659</v>
       </c>
       <c r="B10">
-        <v>0.4363066839731614</v>
+        <v>0.04535207933947222</v>
       </c>
       <c r="C10">
-        <v>0.0339524863865344</v>
+        <v>0.03395248641689226</v>
       </c>
       <c r="D10">
-        <v>0.0413977606495082</v>
+        <v>0.041397760688993</v>
       </c>
       <c r="E10">
-        <v>2.154164017706651</v>
+        <v>2.154164018649894</v>
       </c>
       <c r="F10">
-        <v>0.01042091451162783</v>
+        <v>0.01042091460072513</v>
       </c>
       <c r="G10">
-        <v>1.981529996860703E-05</v>
+        <v>1.981530008905569E-05</v>
       </c>
       <c r="H10">
-        <v>1.748164578866456E-06</v>
+        <v>1.748164595937107E-06</v>
       </c>
       <c r="I10">
-        <v>0.007023573009286899</v>
+        <v>0.007023573030693639</v>
       </c>
       <c r="J10">
-        <v>0.2679148356478546</v>
+        <v>0.2679148361562481</v>
       </c>
       <c r="K10">
-        <v>0.0002185182997242057</v>
+        <v>0.0002185183036733106</v>
       </c>
       <c r="L10">
-        <v>0.1786632073470346</v>
+        <v>0.1786632074874349</v>
       </c>
       <c r="M10">
-        <v>3.117715357752167E-05</v>
+        <v>3.117716495009869E-05</v>
       </c>
       <c r="N10">
-        <v>1.748270715434375E-07</v>
+        <v>1.748270716926462E-07</v>
       </c>
       <c r="O10">
-        <v>0.0001756765738691238</v>
+        <v>0.0001756765748801054</v>
       </c>
       <c r="P10">
-        <v>0.0004744203793874102</v>
+        <v>0.0004744203822638214</v>
       </c>
       <c r="Q10">
-        <v>0.0004852715962470032</v>
+        <v>0.0004852715992002525</v>
       </c>
       <c r="R10">
-        <v>0.0004213184355177342</v>
+        <v>0.0004213184368645799</v>
       </c>
       <c r="S10">
-        <v>3.041022823068992E-09</v>
+        <v>1.946320065983989E-09</v>
       </c>
       <c r="T10">
-        <v>6.011733097679691E-07</v>
+        <v>2.383671064249276E-07</v>
       </c>
       <c r="U10">
-        <v>0.003231658862818706</v>
+        <v>0.003231658894390169</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670231602012</v>
+        <v>0.0003736670238480544</v>
       </c>
       <c r="B11">
-        <v>0.4197414960552314</v>
+        <v>0.035478391344599</v>
       </c>
       <c r="C11">
-        <v>0.01735694911605258</v>
+        <v>0.01735694912356246</v>
       </c>
       <c r="D11">
-        <v>0.02142888671358929</v>
+        <v>0.02142888672262126</v>
       </c>
       <c r="E11">
-        <v>1.087724673730751</v>
+        <v>1.08772467129012</v>
       </c>
       <c r="F11">
-        <v>0.008745847180082582</v>
+        <v>0.008745847229653261</v>
       </c>
       <c r="G11">
-        <v>1.429857804026905E-05</v>
+        <v>1.429857809851487E-05</v>
       </c>
       <c r="H11">
-        <v>1.52760617656039E-06</v>
+        <v>1.527606186414563E-06</v>
       </c>
       <c r="I11">
-        <v>0.005329533745352403</v>
+        <v>0.005329533753008944</v>
       </c>
       <c r="J11">
-        <v>0.1728108976696197</v>
+        <v>0.1728108976895303</v>
       </c>
       <c r="K11">
-        <v>8.878999151902986E-05</v>
+        <v>8.878999575094803E-05</v>
       </c>
       <c r="L11">
-        <v>0.17486427082844</v>
+        <v>0.1748642708380144</v>
       </c>
       <c r="M11">
-        <v>0.0004609133823264467</v>
+        <v>0.0004609133897541188</v>
       </c>
       <c r="N11">
-        <v>1.678931466963876E-07</v>
+        <v>1.678931467906608E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317687004881112</v>
+        <v>0.0001317687010510691</v>
       </c>
       <c r="P11">
-        <v>0.0004362982524317448</v>
+        <v>0.0004362982543622498</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788720437829</v>
+        <v>0.0004458788739931937</v>
       </c>
       <c r="R11">
-        <v>0.0003881229381924918</v>
+        <v>0.0003881229388400789</v>
       </c>
       <c r="S11">
-        <v>2.898828723056617E-09</v>
+        <v>1.822862675340498E-09</v>
       </c>
       <c r="T11">
-        <v>5.308252369992181E-07</v>
+        <v>1.74228766283405E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905565989393512</v>
+        <v>0.002905566008232683</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224247781710064E-05</v>
+        <v>7.224247866130741E-05</v>
       </c>
       <c r="B12">
-        <v>0.08765780760027571</v>
+        <v>0.04340679330076756</v>
       </c>
       <c r="C12">
-        <v>0.001952532045147212</v>
+        <v>0.001952532040357341</v>
       </c>
       <c r="D12">
-        <v>0.002502910752679732</v>
+        <v>0.002502910746604119</v>
       </c>
       <c r="E12">
-        <v>0.1964120788656271</v>
+        <v>0.1964120783915363</v>
       </c>
       <c r="F12">
-        <v>0.01323766300881997</v>
+        <v>0.01323766303361675</v>
       </c>
       <c r="G12">
-        <v>7.602151222037464E-06</v>
+        <v>7.602151223653619E-06</v>
       </c>
       <c r="H12">
-        <v>6.696429407108627E-07</v>
+        <v>6.696429427106047E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007412120545879728</v>
+        <v>0.0007412120528464455</v>
       </c>
       <c r="J12">
-        <v>0.02944733985200263</v>
+        <v>0.0294473397807359</v>
       </c>
       <c r="K12">
-        <v>0.003003638279919019</v>
+        <v>0.003003638278750673</v>
       </c>
       <c r="L12">
-        <v>0.01437969985437207</v>
+        <v>0.01437969985818886</v>
       </c>
       <c r="M12">
-        <v>4.673569113795994E-05</v>
+        <v>4.673569125895769E-05</v>
       </c>
       <c r="N12">
-        <v>2.328325716763073E-08</v>
+        <v>2.328325725818475E-08</v>
       </c>
       <c r="O12">
-        <v>4.418555646320203E-05</v>
+        <v>4.418555696663685E-05</v>
       </c>
       <c r="P12">
-        <v>9.640463444990828E-05</v>
+        <v>9.640463632399865E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812387659618</v>
+        <v>0.0001018812406247883</v>
       </c>
       <c r="R12">
-        <v>0.0001275625089226693</v>
+        <v>0.0001275625088517595</v>
       </c>
       <c r="S12">
-        <v>4.103873474079604E-10</v>
+        <v>2.864811273425369E-10</v>
       </c>
       <c r="T12">
-        <v>1.187097415312101E-07</v>
+        <v>7.76447443533763E-08</v>
       </c>
       <c r="U12">
-        <v>0.0045173398511638</v>
+        <v>0.004517339862947162</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0002400585035751295</v>
+        <v>0.0002400585042162889</v>
       </c>
       <c r="B13">
-        <v>0.1958231944714677</v>
+        <v>0.1932148934587013</v>
       </c>
       <c r="C13">
-        <v>0.005356596888449652</v>
+        <v>0.005356596901879573</v>
       </c>
       <c r="D13">
-        <v>0.009062752360128778</v>
+        <v>0.009062752377911081</v>
       </c>
       <c r="E13">
-        <v>3.722526485034833</v>
+        <v>3.722526486703853</v>
       </c>
       <c r="F13">
-        <v>0.06151576174396042</v>
+        <v>0.06151576176729995</v>
       </c>
       <c r="G13">
-        <v>1.936117976151524E-05</v>
+        <v>1.936117980896385E-05</v>
       </c>
       <c r="H13">
-        <v>5.24494617725423E-06</v>
+        <v>5.244946181815724E-06</v>
       </c>
       <c r="I13">
-        <v>0.002569847233078469</v>
+        <v>0.002569847234268288</v>
       </c>
       <c r="J13">
-        <v>0.1633231699228901</v>
+        <v>0.1633231702045538</v>
       </c>
       <c r="K13">
-        <v>0.000839480941741059</v>
+        <v>0.0008394809414364144</v>
       </c>
       <c r="L13">
-        <v>0.007997817584597828</v>
+        <v>0.007997817721766401</v>
       </c>
       <c r="M13">
-        <v>0.0008360682969793757</v>
+        <v>0.0008360682988446045</v>
       </c>
       <c r="N13">
-        <v>8.612594964988669E-08</v>
+        <v>8.612594970927663E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001479688967858233</v>
+        <v>0.0001479688971535824</v>
       </c>
       <c r="P13">
-        <v>0.0003069426477261876</v>
+        <v>0.000306942648834</v>
       </c>
       <c r="Q13">
-        <v>0.000348456182706894</v>
+        <v>0.0003484561837994696</v>
       </c>
       <c r="R13">
-        <v>0.000286491040755782</v>
+        <v>0.0002864910410854789</v>
       </c>
       <c r="S13">
-        <v>7.753338956729423E-10</v>
+        <v>7.680304551341087E-10</v>
       </c>
       <c r="T13">
-        <v>3.214812703469678E-07</v>
+        <v>3.190607233736865E-07</v>
       </c>
       <c r="U13">
-        <v>0.02591120977938842</v>
+        <v>0.0259112097877199</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>-0.0001546048859054758</v>
+        <v>-0.0001546048854382724</v>
       </c>
       <c r="B14">
-        <v>-2.244063496006575</v>
+        <v>-2.159488379882723</v>
       </c>
       <c r="C14">
-        <v>-0.1841468744517504</v>
+        <v>-0.1841468745148291</v>
       </c>
       <c r="D14">
-        <v>-0.2532871240130704</v>
+        <v>-0.253287124088895</v>
       </c>
       <c r="E14">
-        <v>-4.773286479729556</v>
+        <v>-4.773286468749992</v>
       </c>
       <c r="F14">
-        <v>-0.0008331498570814456</v>
+        <v>-0.0008331499326501002</v>
       </c>
       <c r="G14">
-        <v>-5.044260523431398E-05</v>
+        <v>-5.044260559469932E-05</v>
       </c>
       <c r="H14">
-        <v>-1.067918878280196E-05</v>
+        <v>-1.06791888195807E-05</v>
       </c>
       <c r="I14">
-        <v>-0.04124381884319508</v>
+        <v>-0.04124381886581965</v>
       </c>
       <c r="J14">
-        <v>-2.946882631792158</v>
+        <v>-2.94688263202167</v>
       </c>
       <c r="K14">
-        <v>0.001310341253705806</v>
+        <v>0.001310341238721003</v>
       </c>
       <c r="L14">
-        <v>0.03815086740829317</v>
+        <v>0.03815086769696906</v>
       </c>
       <c r="M14">
-        <v>0.0002355820329309311</v>
+        <v>0.0002355820000560692</v>
       </c>
       <c r="N14">
-        <v>-3.990337136955772E-07</v>
+        <v>-3.990337138056118E-07</v>
       </c>
       <c r="O14">
-        <v>-8.698640479112732E-05</v>
+        <v>-8.698640573863541E-05</v>
       </c>
       <c r="P14">
-        <v>-0.000291252851477</v>
+        <v>-0.000291252853837556</v>
       </c>
       <c r="Q14">
-        <v>-0.0002811214695340976</v>
+        <v>-0.0002811214720671505</v>
       </c>
       <c r="R14">
-        <v>-0.002543511837472822</v>
+        <v>-0.002543511841452957</v>
       </c>
       <c r="S14">
-        <v>-6.256803633038176E-09</v>
+        <v>-6.019986844740908E-09</v>
       </c>
       <c r="T14">
-        <v>-2.952497171940518E-06</v>
+        <v>-2.87401099720942E-06</v>
       </c>
       <c r="U14">
-        <v>0.0006718750158858506</v>
+        <v>0.0006718750017600109</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0002400585035751295</v>
+        <v>0.0002400585042162889</v>
       </c>
       <c r="B15">
-        <v>0.1958231944714677</v>
+        <v>0.1932148934587013</v>
       </c>
       <c r="C15">
-        <v>0.005356596888449652</v>
+        <v>0.005356596901879573</v>
       </c>
       <c r="D15">
-        <v>0.009062752360128778</v>
+        <v>0.009062752377911081</v>
       </c>
       <c r="E15">
-        <v>3.722526485034833</v>
+        <v>3.722526486703853</v>
       </c>
       <c r="F15">
-        <v>0.06151576174396042</v>
+        <v>0.06151576176729995</v>
       </c>
       <c r="G15">
-        <v>1.936117976151524E-05</v>
+        <v>1.936117980896385E-05</v>
       </c>
       <c r="H15">
-        <v>5.24494617725423E-06</v>
+        <v>5.244946181815724E-06</v>
       </c>
       <c r="I15">
-        <v>0.002569847233078469</v>
+        <v>0.002569847234268288</v>
       </c>
       <c r="J15">
-        <v>0.1633231699228901</v>
+        <v>0.1633231702045538</v>
       </c>
       <c r="K15">
-        <v>0.000839480941741059</v>
+        <v>0.0008394809414364144</v>
       </c>
       <c r="L15">
-        <v>0.007997817584597828</v>
+        <v>0.007997817721766401</v>
       </c>
       <c r="M15">
-        <v>0.0008360682969793757</v>
+        <v>0.0008360682988446045</v>
       </c>
       <c r="N15">
-        <v>8.612594964988669E-08</v>
+        <v>8.612594970927663E-08</v>
       </c>
       <c r="O15">
-        <v>0.0001479688967858233</v>
+        <v>0.0001479688971535824</v>
       </c>
       <c r="P15">
-        <v>0.0003069426477261876</v>
+        <v>0.000306942648834</v>
       </c>
       <c r="Q15">
-        <v>0.000348456182706894</v>
+        <v>0.0003484561837994696</v>
       </c>
       <c r="R15">
-        <v>0.000286491040755782</v>
+        <v>0.0002864910410854789</v>
       </c>
       <c r="S15">
-        <v>7.753338956729423E-10</v>
+        <v>7.680304551341087E-10</v>
       </c>
       <c r="T15">
-        <v>3.214812703469678E-07</v>
+        <v>3.190607233736865E-07</v>
       </c>
       <c r="U15">
-        <v>0.02591120977938842</v>
+        <v>0.0259112097877199</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.001127772408834262</v>
+        <v>-0.001127772398653623</v>
       </c>
       <c r="B16">
-        <v>-2.963318660532902</v>
+        <v>-2.905930848190577</v>
       </c>
       <c r="C16">
-        <v>-0.1305959598580395</v>
+        <v>-0.1305959592610196</v>
       </c>
       <c r="D16">
-        <v>-0.1881641401505527</v>
+        <v>-0.1881641393421543</v>
       </c>
       <c r="E16">
-        <v>-7.489396194102828</v>
+        <v>-7.489396011800115</v>
       </c>
       <c r="F16">
-        <v>-0.07598856640743074</v>
+        <v>-0.07598856575165683</v>
       </c>
       <c r="G16">
-        <v>-0.0002960332976116935</v>
+        <v>-0.0002960332970310872</v>
       </c>
       <c r="H16">
-        <v>-2.385709768907709E-05</v>
+        <v>-2.385709773780711E-05</v>
       </c>
       <c r="I16">
-        <v>-0.07641798009789989</v>
+        <v>-0.07641797962373366</v>
       </c>
       <c r="J16">
-        <v>-1.821205943289479</v>
+        <v>-1.821205926297888</v>
       </c>
       <c r="K16">
-        <v>0.008253626188948971</v>
+        <v>0.008253626105307011</v>
       </c>
       <c r="L16">
-        <v>-0.02760137780893683</v>
+        <v>-0.02760137656071379</v>
       </c>
       <c r="M16">
-        <v>-0.0008452763143509842</v>
+        <v>-0.0008452763414360978</v>
       </c>
       <c r="N16">
-        <v>-2.958562249586222E-07</v>
+        <v>-2.958562246508096E-07</v>
       </c>
       <c r="O16">
-        <v>-0.0006194575075397676</v>
+        <v>-0.0006194575071995982</v>
       </c>
       <c r="P16">
-        <v>-0.0008561062109705411</v>
+        <v>-0.0008561062152912689</v>
       </c>
       <c r="Q16">
-        <v>-0.0008896668925942064</v>
+        <v>-0.0008896668963336567</v>
       </c>
       <c r="R16">
-        <v>-0.005094434706654907</v>
+        <v>-0.005094434704800329</v>
       </c>
       <c r="S16">
-        <v>-9.290511205795419E-09</v>
+        <v>-9.12982093133148E-09</v>
       </c>
       <c r="T16">
-        <v>-3.82065486301615E-06</v>
+        <v>-3.767397128508565E-06</v>
       </c>
       <c r="U16">
-        <v>-0.0253558359049938</v>
+        <v>-0.02535583568962797</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>3.223766939979848E-05</v>
+        <v>3.22376694309431E-05</v>
       </c>
       <c r="B17">
-        <v>0.00461759738298128</v>
+        <v>0.004177932434636634</v>
       </c>
       <c r="C17">
-        <v>0.001113009605175791</v>
+        <v>0.001113009605008228</v>
       </c>
       <c r="D17">
-        <v>0.001497187248519454</v>
+        <v>0.001497187248256344</v>
       </c>
       <c r="E17">
-        <v>0.2282113299907694</v>
+        <v>0.2282113298141556</v>
       </c>
       <c r="F17">
-        <v>0.001119529096865705</v>
+        <v>0.00111952909798467</v>
       </c>
       <c r="G17">
-        <v>2.727407246935147E-06</v>
+        <v>2.727407248989148E-06</v>
       </c>
       <c r="H17">
-        <v>3.972295538992739E-07</v>
+        <v>3.972295542556085E-07</v>
       </c>
       <c r="I17">
-        <v>0.0004958955009420369</v>
+        <v>0.000495895500469063</v>
       </c>
       <c r="J17">
-        <v>0.02541819496996259</v>
+        <v>0.02541819496028685</v>
       </c>
       <c r="K17">
-        <v>0.0001296991490375662</v>
+        <v>0.0001296991489367935</v>
       </c>
       <c r="L17">
-        <v>0.0002784031098494688</v>
+        <v>0.0002784031356544977</v>
       </c>
       <c r="M17">
-        <v>-6.446810775069605E-07</v>
+        <v>-6.44680929005746E-07</v>
       </c>
       <c r="N17">
-        <v>1.518256837967759E-09</v>
+        <v>1.518256842224782E-09</v>
       </c>
       <c r="O17">
-        <v>1.308117931896792E-05</v>
+        <v>1.308117934653105E-05</v>
       </c>
       <c r="P17">
-        <v>1.253186592214483E-05</v>
+        <v>1.253186602056844E-05</v>
       </c>
       <c r="Q17">
-        <v>1.324518728016579E-05</v>
+        <v>1.324518737963836E-05</v>
       </c>
       <c r="R17">
-        <v>2.327840181697963E-05</v>
+        <v>2.327840183784133E-05</v>
       </c>
       <c r="S17">
-        <v>2.930712836795227E-11</v>
+        <v>2.807603315074139E-11</v>
       </c>
       <c r="T17">
-        <v>2.000725056714027E-08</v>
+        <v>1.959897434956409E-08</v>
       </c>
       <c r="U17">
-        <v>0.0002862359668852807</v>
+        <v>0.0002862359673261574</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0003172606079426577</v>
+        <v>0.0003172606081067847</v>
       </c>
       <c r="B18">
-        <v>0.01502606675785721</v>
+        <v>0.01438050042389325</v>
       </c>
       <c r="C18">
-        <v>0.00987611054918874</v>
+        <v>0.009876110550141369</v>
       </c>
       <c r="D18">
-        <v>0.01374714296464482</v>
+        <v>0.01374714296580221</v>
       </c>
       <c r="E18">
-        <v>3.036110622004039</v>
+        <v>3.036110621636363</v>
       </c>
       <c r="F18">
-        <v>0.003432919316129022</v>
+        <v>0.003432919325108199</v>
       </c>
       <c r="G18">
-        <v>1.63774660270677E-05</v>
+        <v>1.637746603714495E-05</v>
       </c>
       <c r="H18">
-        <v>2.978082120481051E-07</v>
+        <v>2.978082135093087E-07</v>
       </c>
       <c r="I18">
-        <v>0.004551242759045481</v>
+        <v>0.004551242759608738</v>
       </c>
       <c r="J18">
-        <v>0.1109958649235003</v>
+        <v>0.1109958649221762</v>
       </c>
       <c r="K18">
-        <v>5.68486893534058E-05</v>
+        <v>5.684868913105616E-05</v>
       </c>
       <c r="L18">
-        <v>0.0005643990749493046</v>
+        <v>0.0005643990846905144</v>
       </c>
       <c r="M18">
-        <v>0.002545944302376311</v>
+        <v>0.002545944303405356</v>
       </c>
       <c r="N18">
-        <v>4.247286111130902E-09</v>
+        <v>4.247286131627892E-09</v>
       </c>
       <c r="O18">
-        <v>0.0001205650678564698</v>
+        <v>0.0001205650679779008</v>
       </c>
       <c r="P18">
-        <v>5.354748269544414E-05</v>
+        <v>5.354748311536401E-05</v>
       </c>
       <c r="Q18">
-        <v>5.566771324628818E-05</v>
+        <v>5.566771367010571E-05</v>
       </c>
       <c r="R18">
-        <v>-3.59376702248496E-05</v>
+        <v>-3.59376701197636E-05</v>
       </c>
       <c r="S18">
-        <v>1.754642806957956E-10</v>
+        <v>1.736566458221603E-10</v>
       </c>
       <c r="T18">
-        <v>1.300716171430608E-07</v>
+        <v>1.294725187241019E-07</v>
       </c>
       <c r="U18">
-        <v>0.001277530635914517</v>
+        <v>0.001277530639407329</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.003211433251915275</v>
+        <v>0.003211433394451824</v>
       </c>
       <c r="B19">
-        <v>2.182686027637393</v>
+        <v>1.192351095058219</v>
       </c>
       <c r="C19">
-        <v>0.04087487210664682</v>
+        <v>0.04087487535845476</v>
       </c>
       <c r="D19">
-        <v>0.05159469984481234</v>
+        <v>0.05159470421481234</v>
       </c>
       <c r="E19">
-        <v>7.351983738297398</v>
+        <v>7.351984294929909</v>
       </c>
       <c r="F19">
-        <v>0.2589782437647937</v>
+        <v>0.2589782500269924</v>
       </c>
       <c r="G19">
-        <v>0.0005037090559078802</v>
+        <v>0.0005037090627773598</v>
       </c>
       <c r="H19">
-        <v>-0.002462599941708993</v>
+        <v>-0.002462599940909194</v>
       </c>
       <c r="I19">
-        <v>0.02425252832053517</v>
+        <v>0.02425253035566317</v>
       </c>
       <c r="J19">
-        <v>2.397394009516906</v>
+        <v>2.397394081685478</v>
       </c>
       <c r="K19">
-        <v>0.05817103554624409</v>
+        <v>0.05817103552334666</v>
       </c>
       <c r="L19">
-        <v>2.002549866448839</v>
+        <v>2.0025498845915</v>
       </c>
       <c r="M19">
-        <v>0.001342251397454445</v>
+        <v>0.001342251889077535</v>
       </c>
       <c r="N19">
-        <v>3.000385312227038E-07</v>
+        <v>3.000385405479744E-07</v>
       </c>
       <c r="O19">
-        <v>0.002814345994314785</v>
+        <v>0.002814346056069319</v>
       </c>
       <c r="P19">
-        <v>0.004199702844566218</v>
+        <v>0.004199703008068121</v>
       </c>
       <c r="Q19">
-        <v>0.004308237711478336</v>
+        <v>0.004308237883077441</v>
       </c>
       <c r="R19">
-        <v>0.06643524726671297</v>
+        <v>0.06643524734482205</v>
       </c>
       <c r="S19">
-        <v>2.555756955868541E-08</v>
+        <v>2.278455638223518E-08</v>
       </c>
       <c r="T19">
-        <v>4.57396973789693E-06</v>
+        <v>3.65568740397451E-06</v>
       </c>
       <c r="U19">
-        <v>0.08608849814230052</v>
+        <v>0.08608850037851129</v>
       </c>
     </row>
   </sheetData>
